--- a/Zeitplan 4er gewinnt.xlsx
+++ b/Zeitplan 4er gewinnt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://altekantiaarau-my.sharepoint.com/personal/daniel_thavarajan_stud_altekanti_ch/Documents/Dokumente/bbb/1Lehr Jahr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://altekantiaarau-my.sharepoint.com/personal/daniel_thavarajan_stud_altekanti_ch/Documents/Dokumente/bbb/1Lehr Jahr/Projekte/4er Gewinnt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED7A0B6C-D64C-41C5-A6D4-AADDEC719433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{ED7A0B6C-D64C-41C5-A6D4-AADDEC719433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82AA8EE6-84FF-45CA-A02E-E5A3F84ACB46}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{368905A2-42C3-4AED-AC21-C95DEE7C3F0C}"/>
   </bookViews>
@@ -440,15 +440,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E23635-BF74-4C37-A94F-CD11482561C2}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1">
         <v>45297</v>
       </c>
@@ -464,43 +464,51 @@
       <c r="F1" s="1">
         <v>45674</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" s="1">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>5</v>
       </c>
